--- a/data/trans_dic/P16A07-Nacimiento-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Nacimiento-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1109,7 +1109,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
